--- a/test_cases.xlsx
+++ b/test_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhuva\OneDrive\Desktop\new shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053DB463-F0E9-405B-8B3A-48ACFE64D1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D856180E-0C8B-4223-91BD-4605A970B154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{272AE09A-7A6E-4645-AE9A-34419DE28B69}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
   <si>
     <t>Test Case</t>
   </si>
@@ -126,17 +126,38 @@
     <t>User not found</t>
   </si>
   <si>
-    <t>sadhana1</t>
-  </si>
-  <si>
     <t>sadhana@gmail.com</t>
+  </si>
+  <si>
+    <t>user_registration_success1</t>
+  </si>
+  <si>
+    <t>user_login_invalid_password1</t>
+  </si>
+  <si>
+    <t>user_login_invalid_password2</t>
+  </si>
+  <si>
+    <t>logged in</t>
+  </si>
+  <si>
+    <t>gowri1</t>
+  </si>
+  <si>
+    <t>gowri1@gmail.com</t>
+  </si>
+  <si>
+    <t>abhiiii</t>
+  </si>
+  <si>
+    <t>abhiiii@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +169,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -492,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9091D9A-ADD2-49B5-AC50-9AD18DE00370}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -538,14 +565,14 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>1234</v>
@@ -678,7 +705,80 @@
         <v>29</v>
       </c>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8">
+        <v>1234</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <v>1345</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>345678</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{A1A1B92F-34BE-4924-AB82-0B734AD7A3C5}"/>
     <hyperlink ref="B6" r:id="rId2" xr:uid="{A29CE163-D051-469F-B598-41151D9D14C0}"/>
@@ -690,8 +790,12 @@
     <hyperlink ref="B4" r:id="rId8" xr:uid="{62A5A101-B3D8-47CD-8C4E-4F9D91F46594}"/>
     <hyperlink ref="B7" r:id="rId9" xr:uid="{3E5C8613-9453-4CD5-B96D-D69BEA849759}"/>
     <hyperlink ref="D7" r:id="rId10" xr:uid="{1CACAF90-5C40-437C-855B-97B1F8211A5E}"/>
+    <hyperlink ref="B2" r:id="rId11" xr:uid="{D8F25429-415D-49C8-8ABF-ACA0E78CE691}"/>
+    <hyperlink ref="D8" r:id="rId12" xr:uid="{1034464A-2256-4DA1-ADF2-BB328A8B26F1}"/>
+    <hyperlink ref="D9" r:id="rId13" xr:uid="{AEAACAEF-13CF-4FDC-9777-F472733C70D8}"/>
+    <hyperlink ref="D10" r:id="rId14" xr:uid="{124D0EB2-D386-4DDD-AC5D-9CC3D132202C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>